--- a/medicine/Œil et vue/Lentilles_cercle/Lentilles_cercle.xlsx
+++ b/medicine/Œil et vue/Lentilles_cercle/Lentilles_cercle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lentilles cercles, ou lentilles cerclées, sont un type de lentilles de contact à vocation cosmétique. Elles sont constituées d'une zone transparente afin de laisser inchangée la vision, et d'un cercle sur le bord et autour de l'iris afin de modifier sa couleur ou de changer sa taille apparente. Lorsqu'elles sont de couleur noire, elles peuvent faire croire à une aniridie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lentilles cercles, ou lentilles cerclées, sont un type de lentilles de contact à vocation cosmétique. Elles sont constituées d'une zone transparente afin de laisser inchangée la vision, et d'un cercle sur le bord et autour de l'iris afin de modifier sa couleur ou de changer sa taille apparente. Lorsqu'elles sont de couleur noire, elles peuvent faire croire à une aniridie.
 </t>
         </is>
       </c>
